--- a/Table/TABLE_关卡.xlsx
+++ b/Table/TABLE_关卡.xlsx
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
